--- a/src/main/resources/item.xlsx
+++ b/src/main/resources/item.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CodeBase\ExcelReadWriter\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\330085\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="251">
   <si>
     <t>item</t>
   </si>
@@ -339,6 +340,444 @@
   </si>
   <si>
     <t>Lokta0ik Rajniti</t>
+  </si>
+  <si>
+    <t>Class-10</t>
+  </si>
+  <si>
+    <t>Khitij - Hindi</t>
+  </si>
+  <si>
+    <t>Sparsh -2nd Lang. Hindi</t>
+  </si>
+  <si>
+    <t>Sanchayan - Suppl. Hindi ( 2nd Lang.)</t>
+  </si>
+  <si>
+    <t>First Flight - English Text</t>
+  </si>
+  <si>
+    <t>Footprints without Feet - English Suppl. Rdr</t>
+  </si>
+  <si>
+    <t>Shemusi II - Sanskrit</t>
+  </si>
+  <si>
+    <t>India &amp; Contemporary World II - History</t>
+  </si>
+  <si>
+    <t>Bharat Aur Samakalin Vishwa II - Itihas</t>
+  </si>
+  <si>
+    <t>Contempropry India - Geogrophy</t>
+  </si>
+  <si>
+    <t>Understanding Economic Development - Economic</t>
+  </si>
+  <si>
+    <t>Arthik Vikas Ki Samajh - Arthashastra</t>
+  </si>
+  <si>
+    <t>Democratic Politics II</t>
+  </si>
+  <si>
+    <t>Lokta0ik Rajniti II</t>
+  </si>
+  <si>
+    <t>Class-11</t>
+  </si>
+  <si>
+    <t>Aroh - Hindi Core</t>
+  </si>
+  <si>
+    <t>Vitan - Suppl.Hindi I ( Core )</t>
+  </si>
+  <si>
+    <t>Antara - Hindi Lit.</t>
+  </si>
+  <si>
+    <t>Antaral - Suppl. Hindi Lit.</t>
+  </si>
+  <si>
+    <t>Abhvyakti Aur Madhyam(Core &amp; Lit Cl XI &amp; XII)</t>
+  </si>
+  <si>
+    <t>Hornbill - English Core</t>
+  </si>
+  <si>
+    <t>Snapshot - Suppl. Eng Core</t>
+  </si>
+  <si>
+    <t>Owoen words - English Lit.</t>
+  </si>
+  <si>
+    <t>Sanskrit - Bhaswati</t>
+  </si>
+  <si>
+    <t>Sanskrit - Shaswati</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Jeev Vigyan</t>
+  </si>
+  <si>
+    <t>Chemistry Part I</t>
+  </si>
+  <si>
+    <t>Chemistry Part II</t>
+  </si>
+  <si>
+    <t>Rasayan Vigyan Bhag I</t>
+  </si>
+  <si>
+    <t>Rasayan Vigyan Bhag II</t>
+  </si>
+  <si>
+    <t>Physics Part I</t>
+  </si>
+  <si>
+    <t>Physics Part II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhautik Bhag I </t>
+  </si>
+  <si>
+    <t>Bhautik Bhag II</t>
+  </si>
+  <si>
+    <t>Themes of World History</t>
+  </si>
+  <si>
+    <t>Vishva Itihas Ke Kuch Vishay</t>
+  </si>
+  <si>
+    <t>Fundamental of Physical Geo.</t>
+  </si>
+  <si>
+    <t>Bhautuk Bhugol Ke Mool Sidhant</t>
+  </si>
+  <si>
+    <t>India Phy. Environment</t>
+  </si>
+  <si>
+    <t>Bharat Bhautik Paryavaran</t>
+  </si>
+  <si>
+    <t>Prac.Work In Geogrophy</t>
+  </si>
+  <si>
+    <t>Bhugol Mein Prayogatmak Karya</t>
+  </si>
+  <si>
+    <t>Eco. Statistics</t>
+  </si>
+  <si>
+    <t>Arthashastra Mein Sankhiki</t>
+  </si>
+  <si>
+    <t>Indian Eco. Development</t>
+  </si>
+  <si>
+    <t>Bharatiya Arthvyavasta Ka Vikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Constitution at Work </t>
+  </si>
+  <si>
+    <t>Bharatiya sanvidhan Ka Karya</t>
+  </si>
+  <si>
+    <t>Pol. Theory part II</t>
+  </si>
+  <si>
+    <t>Rajniti - Siddhant Bhag II</t>
+  </si>
+  <si>
+    <t>Sociology Part I</t>
+  </si>
+  <si>
+    <t>Samajshastra Bhag I</t>
+  </si>
+  <si>
+    <t>Understanding Society Part II</t>
+  </si>
+  <si>
+    <t>Samaj Ka Bodh Bhag II</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Vyavasaik Adhyayan</t>
+  </si>
+  <si>
+    <t>Accts Part I</t>
+  </si>
+  <si>
+    <t>Lekhashatra Bhag I</t>
+  </si>
+  <si>
+    <t>Accts Part II</t>
+  </si>
+  <si>
+    <t>Lekhashatra Bhag II</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Manovigyan Ka Parichaya</t>
+  </si>
+  <si>
+    <t>Computers &amp; Communication Technology Part I</t>
+  </si>
+  <si>
+    <t>Srijan I (Textbook in Creative Writing &amp; Translation for class XI</t>
+  </si>
+  <si>
+    <t>Living Craft Tradition of India (Textbook in Heritage Crafts)</t>
+  </si>
+  <si>
+    <t>The Story of Graphic Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Ecology &amp; Family Science Part I </t>
+  </si>
+  <si>
+    <t>Human Ecology &amp; Family Science Part II</t>
+  </si>
+  <si>
+    <t>Bharatiya Hastakala Ki Paramparayen</t>
+  </si>
+  <si>
+    <t>Computers &amp; Communication Technology Part II</t>
+  </si>
+  <si>
+    <t>Exploring the Craft Tradition of India</t>
+  </si>
+  <si>
+    <t>Graphic Design Ek Kahani Class XI</t>
+  </si>
+  <si>
+    <t>Bharatiya Hastakala Paramparaon Ki Khoj</t>
+  </si>
+  <si>
+    <t>Computer Aur Sanchar Pradyogiki Bhag I</t>
+  </si>
+  <si>
+    <t>An Introduction to Indian Art</t>
+  </si>
+  <si>
+    <t>Computer Aur Sanchar Pradyogiki Bhag II</t>
+  </si>
+  <si>
+    <t>Accountancy</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Writing &amp; Translation</t>
+  </si>
+  <si>
+    <t>Home Science</t>
+  </si>
+  <si>
+    <t>Class-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaroh - Hindi Core </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antara - Hindi Lit. </t>
+  </si>
+  <si>
+    <t>Antaral - Suppl. Hindi Lit. I</t>
+  </si>
+  <si>
+    <t>Flemingo - English Core</t>
+  </si>
+  <si>
+    <t>Vistas - Suppl. Eng Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keladaiscope - English Lit. </t>
+  </si>
+  <si>
+    <t>Sanskrit - Bhaswati II</t>
+  </si>
+  <si>
+    <t>Sanskrit - Shaswati II</t>
+  </si>
+  <si>
+    <t>Mathematics Part I</t>
+  </si>
+  <si>
+    <t>Mathematics Part II</t>
+  </si>
+  <si>
+    <t>Ganit Bhag I</t>
+  </si>
+  <si>
+    <t>Ganit Bhag II</t>
+  </si>
+  <si>
+    <t>Biology 1</t>
+  </si>
+  <si>
+    <t>Jeev Vigyan 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry I </t>
+  </si>
+  <si>
+    <t>Chemistry II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasayan Vigyan Bhag I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics I </t>
+  </si>
+  <si>
+    <t>Physics II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhautik I </t>
+  </si>
+  <si>
+    <t>Bhautik II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymes In Indian History Part I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymes In Indian History Part II </t>
+  </si>
+  <si>
+    <t>Thymes In Indian History Part III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharatiya Itihas Ke Kuch Ansh Bhag I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharatiya Itihas Ke Kuch Ansh Bhag II </t>
+  </si>
+  <si>
+    <t>Bharatiya Itihas Ke Kuch Ansh Bhag III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentals of Human Geogrophy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manav Bhugol Ke Mul Sidhant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">India People and Economy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharat - Log Aur Arthavyavastha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prac.Work In Geogrophy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhugol Mein Prayogatmak Karya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microeconomics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyasthi Arthashastra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samashti Arthashastra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary World Politics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samakalin Vishwa Rajniti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Change in India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharat Mein Samajik Parivartan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Society - Sociology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharatiya Samaj - Samajshastra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Studies I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Studies II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyavasaik Adhyayan I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyavasaik Adhyayan II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accountancy I </t>
+  </si>
+  <si>
+    <t>Accountancy II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accountancy III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politics in India since Independence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lekhashatra I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lekhashastra II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swata0a Bharat Mein Rajniti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manovigyan Ka Parichaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craft Tradition of India (Textbook in Heritage Craft for Class XII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards a New Age of Graphic Design Class XII </t>
   </si>
 </sst>
 </file>
@@ -673,17 +1112,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,8 +3086,2522 @@
         <v>973</v>
       </c>
     </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <v>60</v>
+      </c>
+      <c r="F99">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>60</v>
+      </c>
+      <c r="F101">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
+      </c>
+      <c r="F103">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>35</v>
+      </c>
+      <c r="F104">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105">
+        <v>60</v>
+      </c>
+      <c r="F105">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>140</v>
+      </c>
+      <c r="F106">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>140</v>
+      </c>
+      <c r="F107">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108">
+        <v>165</v>
+      </c>
+      <c r="F108">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109">
+        <v>135</v>
+      </c>
+      <c r="F109">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110">
+        <v>125</v>
+      </c>
+      <c r="F110">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111">
+        <v>125</v>
+      </c>
+      <c r="F111">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112">
+        <v>65</v>
+      </c>
+      <c r="F112">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113">
+        <v>65</v>
+      </c>
+      <c r="F113">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114">
+        <v>65</v>
+      </c>
+      <c r="F114">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115">
+        <v>65</v>
+      </c>
+      <c r="F115">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116">
+        <v>80</v>
+      </c>
+      <c r="F116">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117">
+        <v>80</v>
+      </c>
+      <c r="F117">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>11066</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <v>11067</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>11071</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>11072</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>11073</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>11074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>119</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F130">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F132">
+        <v>11082</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F133">
+        <v>11083</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>119</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F134">
+        <v>11084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F135">
+        <v>11085</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F136">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F137">
+        <v>11087</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F139">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F140">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141">
+        <v>11091</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>119</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142">
+        <v>11092</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F144">
+        <v>11094</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>119</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F145">
+        <v>11095</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>119</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F146">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>119</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F147">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F148">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>119</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F149">
+        <v>11099</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>119</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F151">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>119</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F152">
+        <v>11102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>119</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F153">
+        <v>11103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>119</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F154">
+        <v>11117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155">
+        <v>11118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>119</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F156">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>119</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F157">
+        <v>11105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>119</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F158">
+        <v>11106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>119</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F159">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>119</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F160">
+        <v>11108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>119</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161">
+        <v>11109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>119</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F162">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F163">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>119</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F164">
+        <v>11112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>119</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F165">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F166">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>119</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F167">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F168">
+        <v>11131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>119</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F169">
+        <v>11132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>119</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F170">
+        <v>11133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>119</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F171">
+        <v>11134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" t="s">
+        <v>119</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F172">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>119</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F173">
+        <v>11137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>119</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F174">
+        <v>11138</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F175">
+        <v>11139</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>119</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F176">
+        <v>11140</v>
+      </c>
+      <c r="I176" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>119</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F177">
+        <v>11141</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F178">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>119</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F179">
+        <v>11143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>119</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F180">
+        <v>11144</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>119</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F181">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>192</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182">
+        <v>12070</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>192</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185">
+        <v>12073</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>12074</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>192</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>12076</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F189">
+        <v>12077</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F190">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192">
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>192</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>192</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>12082</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F195">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F196">
+        <v>12084</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F197">
+        <v>12085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F198">
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F199">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F200">
+        <v>12088</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>210</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F201">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>211</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>192</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F202">
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>212</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>192</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F203">
+        <v>12091</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>213</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F204">
+        <v>12092</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F205">
+        <v>12093</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>192</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F206">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207">
+        <v>12125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>192</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208">
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>192</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F209">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>219</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>192</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F210">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>192</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F211">
+        <v>12097</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>221</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F212">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>222</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>192</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F213">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>223</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>192</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F214">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>192</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F215">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>192</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>192</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F217">
+        <v>12103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>227</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F218">
+        <v>12104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F219">
+        <v>12105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>229</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F220">
+        <v>12106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>230</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>192</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F221">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>231</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>192</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F222">
+        <v>12108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F223">
+        <v>12109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F224">
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F225">
+        <v>12111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F226">
+        <v>12112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>236</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>192</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F227">
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>237</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>192</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F228">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>238</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F229">
+        <v>12115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>239</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>192</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F230">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>240</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F231">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>241</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F232">
+        <v>12128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>192</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F233">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>243</v>
+      </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>192</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F234">
+        <v>12119</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>244</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>192</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F235">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>245</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>192</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F236">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>246</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>192</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F237">
+        <v>12122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>247</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>192</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F238">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>248</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>192</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F239">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>249</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>192</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F240">
+        <v>12133</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>250</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>192</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F241">
+        <v>12134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>